--- a/biology/Botanique/Thomas_Gaskell_Tutin/Thomas_Gaskell_Tutin.xlsx
+++ b/biology/Botanique/Thomas_Gaskell_Tutin/Thomas_Gaskell_Tutin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Gaskell Tutin est un botaniste britannique, né le 21 avril 1908 à Kew et mort le 7 octobre 1987.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils unique de Frank et Jane Tutin, il a une sœur, Elizabeth, de quatre ans sa cadette. Celle-ci deviendra une portraitiste renommée et, sous son nom de femme marié, Mary Gillick, sera l’auteur du portrait d’Élisabeth II qui figurera sur la première pièce de monnaie de son règne. Son père est chimiste et travaille à peu de distance des Jardins botaniques royaux de Kew et le jeune Tutin s’intéresse très tôt à la botanique mais aussi aux papillons. Il fréquente très souvent les jardins de Kew ce qui lui permet d’accumuler de solides connaissances en botanique.
 Il étudie à la Cotham Grammar School de Bristol de 1920 à 1927, année de son entrée au Downing College de Cambridge. Il est influencé par Humphrey Gilbert-Carter (1884-1969), qui dirige le jardin botanique de Cambridge de 1921 à 1950. Tutin qui n’avait pas été séduit par sa première année de botanique, au point d’envisager de s’orienter vers la zoologie, va changer d’opinion grâce aux cours de Gilbert-Carter. Il va notamment s’intéresser à la taxinomie. Tutin va être aussi profondément influencé par sa fréquentation de la Cambridge Natural History Society où il se lie d’amitié avec Paul Westmacott Richards (1908-1995) et Edmund Frederic Warburg (1908-1966). Ces très jeunes gens herborisent les environs avec d’autres futurs botanistes comme John Scott Lennox Gilmour (1906-1986). Tutin commence à se spécialiser sur les carex et les graminées.
@@ -550,7 +564,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anthony David Bradshaw (1992). Thomas Gaskell Tutin. 21 April 1908-7 October 1987, Biographical Memoirs of Fellows of the Royal Society, 38 : 360-375.  (ISSN 0080-4606)</t>
         </is>
